--- a/biology/Botanique/Rosa_sect._Carolinae/Rosa_sect._Carolinae.xlsx
+++ b/biology/Botanique/Rosa_sect._Carolinae/Rosa_sect._Carolinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Carolinae
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,7 +553,9 @@
           <t>Origine et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les rosiers de la section Carolinae sont de petits buissons originaires d'Amérique du Nord aux fleurs rose pourpre :
 Rosa palustris, aux fleurs simples de 5 cm pourpres, Rosa virginiana, au feuillage remarquable, et leur hybride, Rosa mariæ-græbneræ, aux fleurs roses se succédant tout l'été,
@@ -573,7 +589,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rosa carolina L., le rosier de Caroline,
 Rosa foliolosa Nutt. ex Torr. &amp; A. Gray,
@@ -609,6 +627,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
